--- a/jpcore-r4/feature/swg45-RP番号、薬剤番号のExtension化/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/feature/swg45-RP番号、薬剤番号のExtension化/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -452,6 +452,26 @@
 ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>MedicationDispense.extension:preparation</t>
+  </si>
+  <si>
+    <t>preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDispense_Preparation}
+</t>
+  </si>
+  <si>
+    <t>調剤結果</t>
+  </si>
+  <si>
+    <t>薬剤単位の調剤結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>MedicationDispense.extension:rpNumber</t>
   </si>
   <si>
@@ -463,26 +483,6 @@
   </si>
   <si>
     <t>Rp番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>MedicationDispense.extension:preparation</t>
-  </si>
-  <si>
-    <t>preparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDispense_Preparation}
-</t>
-  </si>
-  <si>
-    <t>調剤結果</t>
-  </si>
-  <si>
-    <t>薬剤単位の調剤結果</t>
   </si>
   <si>
     <t>MedicationDispense.modifierExtension</t>
@@ -2868,7 +2868,7 @@
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
@@ -2886,7 +2886,7 @@
         <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2946,7 +2946,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -2969,13 +2969,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>133</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -2985,7 +2985,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -2997,10 +2997,10 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>150</v>
@@ -3063,7 +3063,7 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>140</v>
@@ -6452,7 +6452,7 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>363</v>
@@ -6569,7 +6569,7 @@
         <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>363</v>
